--- a/Turntable Parts List.xlsx
+++ b/Turntable Parts List.xlsx
@@ -1,22 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalar\OneDrive\Documents\Github\Turntable-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A66A9-E55E-4C15-AB18-C1AD7444A8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Part Name/URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
   <si>
     <t>Details</t>
@@ -38,14 +60,163 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Bought?</t>
+  </si>
+  <si>
+    <t>PROJECT SUMMARY</t>
+  </si>
+  <si>
+    <t>Turntable motor</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Vbestlife-Turntable-Recorder-mounting-Turntables/dp/B084G2W85H</t>
+  </si>
+  <si>
+    <t>Vbestlife Turntable Motor, Turntable Motor with 3 Speed DC 12V Vinyl Record Recorder, with 25 mm mounting Hole for Most 3 Speed Turntables</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Cartridge</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ortofon-Red-Moving-Magnet-Cartridge/dp/B000WMCEKK/ref=asc_df_B000WMCEKK/?hvadid=312305907549&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9073502&amp;hvnetw=g&amp;hvpone=&amp;hvpos=&amp;hvptwo=&amp;hvqmt=&amp;hvrand=6918481367705688779&amp;hvtargid=pla-456030908606&amp;linkCode=df0&amp;psc=1&amp;tag=hyprod-20</t>
+  </si>
+  <si>
+    <t>Ortofon 2M Red Moving Magnet Cartridge</t>
+  </si>
+  <si>
+    <t>Ortofon</t>
+  </si>
+  <si>
+    <t>Attaches to a standard headshell, technical info at https://www.ortofon.com/ortofon-2m-red-p-317</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>3/8" OD Aluminum Tubes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Tynulox-Aluminum-Seamless-Tube%EF%BC%8CMetal-Decoration/dp/B0BNQ4VDSM/ref=asc_df_B0BNQ4VDSM/?gclid=CjwKCAjw-7OlBhB8EiwAnoOEk8Uh_6f9wX9hAb3GTq-shoqW2pc5gEnZEet44yY6aea9Xg1oxC5sfhoCXqIQAvD_BwE&amp;hvadid=642135199591&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9004078&amp;hvnetw=g&amp;hvpone=&amp;hvpos=&amp;hvptwo=&amp;hvqmt=&amp;hvrand=14401334226539110977&amp;hvtargid=pla-1946493906148&amp;linkCode=df0&amp;tag=hyprod-20&amp;th=1</t>
+  </si>
+  <si>
+    <t>Tonearm Body</t>
+  </si>
+  <si>
+    <t>3/8"x12"x12" Clear Acrylic</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BuyPlastic-Acrylic-Plexiglass-Plastic-Replacement/dp/B08NFDHN3X/ref=sr_1_4?crid=RQOPJZK3PGL0&amp;keywords=3%25252F4%25252Bacrylic%25252Bsheet%25252B12x12&amp;qid=1689100834&amp;sprefix=3%25252F4%25252Bacrylic%25252Bsheet%25252B12x12%25252Caps%25252C91&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>Platter</t>
+  </si>
+  <si>
+    <t>Will Sandblast</t>
+  </si>
+  <si>
+    <t>Headshell Stock</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/products/aluminum/multipurpose-6061-aluminum-sheets-and-bars-7/length~2/width~2/thickness~2/</t>
+  </si>
+  <si>
+    <t>Aluminum 2x2x1 min, Multipurpose 6061 Aluminum Sheets and Bars</t>
+  </si>
+  <si>
+    <t>McMaster-Carr</t>
+  </si>
+  <si>
+    <t>2" Cube, Measurements https://www.ortofon.com/lh-2000-p-558-n-3446</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256802332064019.html?spm=a2g0o.detail.1000060.3.7fcf6354JSxZ7D&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.13339.291025.0&amp;scm_id=1007.13339.291025.0&amp;scm-url=1007.13339.291025.0&amp;pvid=06a39eb5-7530-404c-878c-6ec838d58d0d&amp;_t=gps-id%3ApcDetailBottomMoreThisSeller%2Cscm-url%3A1007.13339.291025.0%2Cpvid%3A06a39eb5-7530-404c-878c-6ec838d58d0d%2Ctpp_buckets%3A668%232846%238108%231977&amp;pdp_npi=3%40dis%21USD%216.99%216.36%21%21%21%21%21%402101ef8716893420538115404e5e39%2112000020970256795%21rec%21US%21&amp;gatewayAdapt=glo2usa</t>
+  </si>
+  <si>
+    <t>4 Pin Headshell Connector CN5625</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>Motor Controller Stuff</t>
+  </si>
+  <si>
+    <t>Subplatter</t>
+  </si>
+  <si>
+    <t>Cherry Wood</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Switches and such</t>
+  </si>
+  <si>
+    <t>Preamp Supplies</t>
+  </si>
+  <si>
+    <t>RCA Cables</t>
+  </si>
+  <si>
+    <t>Headshell Lead Cables</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SPECIALTY-AV-OFCGL2-Turntable-Cartridge-Headshell/dp/B009W2BE0M/ref=sr_1_6?keywords=headshell+lead+wires&amp;qid=1689613892&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>45mm leads</t>
+  </si>
+  <si>
+    <t>AC/DC Adaptor</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07N2LN2PK/ref=sspa_dk_detail_3?psc=1&amp;pd_rd_i=B07N2LN2PK&amp;pd_rd_w=6I18B&amp;content-id=amzn1.sym.0d1092dc-81bb-493f-8769-d5c802257e94&amp;pf_rd_p=0d1092dc-81bb-493f-8769-d5c802257e94&amp;pf_rd_r=HXF7J8CHHK31W9TMCH6Z&amp;pd_rd_wg=rktS4&amp;pd_rd_r=d1fbb6bf-d686-471f-afb8-6f567c4b37d6&amp;s=electronics&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWwy</t>
+  </si>
+  <si>
+    <t>12V, 1A, 12W</t>
+  </si>
+  <si>
+    <t>Preamp Opamp</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/OPA2134PA?qs=7nS3%252BbEUL6uyT34OzaiM4g%3D%3D&amp;mgh=1&amp;gclid=CjwKCAjwq4imBhBQEiwA9Nx1BtuU-DR-04CcpxeVvQgRPkYYRPZG74GjF9hiS7kwVU4F-YY4Ufk_LBoCkf0QAvD_BwE</t>
+  </si>
+  <si>
+    <t>OPA2134PA</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Made for audio</t>
+  </si>
+  <si>
+    <t>Headshell Male Connector</t>
+  </si>
+  <si>
+    <t>Headshell Female Connector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,9 +226,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,32 +285,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -123,10 +344,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -164,71 +385,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,7 +477,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -279,11 +500,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -292,13 +513,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -308,7 +529,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -317,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -326,7 +547,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -334,10 +555,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -402,53 +623,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="7">
+        <f>SUM(G:G)</f>
+        <v>200.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>31.78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6.36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>9.98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="N19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>